--- a/src/test/resources/excel/Swag_lab_data.xlsx
+++ b/src/test/resources/excel/Swag_lab_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Kashyap\PracticeAllConcepts\OpenCart_POM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F51CEE-7770-411D-B571-F94AB807E1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03D0EB-3837-4333-958C-CE0A53C782BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <sheet name="addSingleProductTest" sheetId="8" r:id="rId5"/>
     <sheet name="addMultipleProductsTest" sheetId="9" r:id="rId6"/>
     <sheet name="verifyCartBadgeCountTest" sheetId="10" r:id="rId7"/>
-    <sheet name="invalidLoginTest" sheetId="2" r:id="rId8"/>
-    <sheet name="lockedOutUserTest" sheetId="3" r:id="rId9"/>
+    <sheet name="verifyCartItemsCountTest" sheetId="11" r:id="rId8"/>
+    <sheet name="removeProductFromCartTest" sheetId="12" r:id="rId9"/>
+    <sheet name="verifyCartBadgeAndCartItemMatch" sheetId="13" r:id="rId10"/>
+    <sheet name="invalidLoginTest" sheetId="2" r:id="rId11"/>
+    <sheet name="lockedOutUserTest" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>password</t>
   </si>
@@ -150,6 +153,15 @@
   </si>
   <si>
     <t>Cart badge count mismatch</t>
+  </si>
+  <si>
+    <t>Cart item count mismatch</t>
+  </si>
+  <si>
+    <t>Product not remove from cart</t>
+  </si>
+  <si>
+    <t>Cart badge count and cart items mismatch</t>
   </si>
 </sst>
 </file>
@@ -515,6 +527,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA1BCD8-8CCC-4CF6-9421-A93C03D1BF24}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5691473-0634-4B3F-B05F-56C8B4C17074}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF7F3F-A69E-42A1-9B72-36BD2F0F28D9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85E1617-E59E-4F3E-ACFC-6594C5F1CB40}">
   <dimension ref="A1:C2"/>
@@ -830,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B514DDB-DAF5-4761-AA98-610B31C96ED2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -864,35 +987,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5691473-0634-4B3F-B05F-56C8B4C17074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCE9E71-9F79-48AF-8E3F-12B454E62E46}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -901,35 +1024,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF7F3F-A69E-42A1-9B72-36BD2F0F28D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E60954D-D51C-496D-B70F-EE0E441526D4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/Swag_lab_data.xlsx
+++ b/src/test/resources/excel/Swag_lab_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Kashyap\PracticeAllConcepts\OpenCart_POM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03D0EB-3837-4333-958C-CE0A53C782BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3788A5F5-2687-43AA-8849-F1A06F1620DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,10 @@
     <sheet name="verifyCartItemsCountTest" sheetId="11" r:id="rId8"/>
     <sheet name="removeProductFromCartTest" sheetId="12" r:id="rId9"/>
     <sheet name="verifyCartBadgeAndCartItemMatch" sheetId="13" r:id="rId10"/>
-    <sheet name="invalidLoginTest" sheetId="2" r:id="rId11"/>
-    <sheet name="lockedOutUserTest" sheetId="3" r:id="rId12"/>
+    <sheet name="verfiyFormDetails" sheetId="14" r:id="rId11"/>
+    <sheet name="verifyCancelBtn" sheetId="15" r:id="rId12"/>
+    <sheet name="invalidLoginTest" sheetId="2" r:id="rId13"/>
+    <sheet name="lockedOutUserTest" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>password</t>
   </si>
@@ -162,6 +164,33 @@
   </si>
   <si>
     <t>Cart badge count and cart items mismatch</t>
+  </si>
+  <si>
+    <t>loginusername</t>
+  </si>
+  <si>
+    <t>loginpassword</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>errmsg</t>
+  </si>
+  <si>
+    <t>kashyap</t>
+  </si>
+  <si>
+    <t>R4445</t>
+  </si>
+  <si>
+    <t>Overview page not displayed</t>
   </si>
 </sst>
 </file>
@@ -531,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA1BCD8-8CCC-4CF6-9421-A93C03D1BF24}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -565,6 +594,90 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF073674-2611-49AE-8F0A-45CFB47321EC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6019A-FA1F-4C5B-876D-0700F253FCAE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5691473-0634-4B3F-B05F-56C8B4C17074}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -601,7 +714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF7F3F-A69E-42A1-9B72-36BD2F0F28D9}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/src/test/resources/excel/Swag_lab_data.xlsx
+++ b/src/test/resources/excel/Swag_lab_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Kashyap\PracticeAllConcepts\OpenCart_POM\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3788A5F5-2687-43AA-8849-F1A06F1620DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E29AB8F-245B-45B0-AEB1-274801799371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLoginTest" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,10 @@
     <sheet name="verifyCartBadgeAndCartItemMatch" sheetId="13" r:id="rId10"/>
     <sheet name="verfiyFormDetails" sheetId="14" r:id="rId11"/>
     <sheet name="verifyCancelBtn" sheetId="15" r:id="rId12"/>
-    <sheet name="invalidLoginTest" sheetId="2" r:id="rId13"/>
-    <sheet name="lockedOutUserTest" sheetId="3" r:id="rId14"/>
+    <sheet name="verifycheckoutOverview" sheetId="16" r:id="rId13"/>
+    <sheet name="verifyFinishCheckout" sheetId="17" r:id="rId14"/>
+    <sheet name="invalidLoginTest" sheetId="2" r:id="rId15"/>
+    <sheet name="lockedOutUserTest" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
   <si>
     <t>password</t>
   </si>
@@ -191,6 +193,9 @@
   </si>
   <si>
     <t>Overview page not displayed</t>
+  </si>
+  <si>
+    <t>R42201</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6019A-FA1F-4C5B-876D-0700F253FCAE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -678,6 +683,104 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CD4385-32A0-4A77-A5CF-887E1703E127}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE1C58A-17C4-41DB-97A1-25EEEA45B741}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5691473-0634-4B3F-B05F-56C8B4C17074}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -714,7 +817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF7F3F-A69E-42A1-9B72-36BD2F0F28D9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
